--- a/src/main/resources/static/sample_merchant_short_complate.xlsx
+++ b/src/main/resources/static/sample_merchant_short_complate.xlsx
@@ -507,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1381,403 +1381,6 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N36" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
